--- a/biology/Botanique/Tuber_uncinatum/Tuber_uncinatum.xlsx
+++ b/biology/Botanique/Tuber_uncinatum/Tuber_uncinatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tuber uncinatum, de ses noms vernaculaires français truffe de Bourgogne, truffe d'automne, truffe de Champagne  est un champignon ascomycète comestible (du genre Tuber).  Dans son ouvrage sur la truffe paru en 1892, Adolphe Chatin la désigne comme truffe de Bourgogne et de Champagne. 
 Largement répandue dans toute l'Europe, elle se met en symbiose avec une grande variété d'arbres : chênes, noisetiers, charmes, hêtres et pins. Elle est peu exigeante du point de vue chaleur et qualité du sol.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tuber uncinatum est noir ; sa chair, à maturité, est brun foncé. Les veines sont blanches et très nombreuses. On note au nez un parfum spécifique très raffiné. En bouche, le goût est agréable et se rapproche de celui de la noisette.
 La truffe de Bourgogne et de Champagne est récoltée en France dans tout le grand Centre Est, principalement en Bourgogne et en Champagne (notamment en Haute-Marne qui se classe en tête des départements producteurs), ainsi qu'en Lorraine et en Alsace. Cette truffe est très répandue en Europe.
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à la Renaissance, la seule truffe qui figurait à la table des rois de France était celle de Bourgogne. Le goût pour la truffe du Périgord est venu à l'époque de François Ier.
 Tuber uncinatum venait parfumer au XIXe siècle les mets truffés servis dans les grands restaurants de Paris.
@@ -577,7 +593,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Production annuelle en France :
 1994 :     3 à 4 tonnes
@@ -615,9 +633,11 @@
           <t>Parenté ou identité entre Tuber aestivum et Tuber uncinatum</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est Adolphe Chatin en 1887, qui a défini Tuber uncinatum comme une espèce à part entière alors qu'auparavant elle était classée dans  Tuber aestivum décrite en 1831 par Vittadini [2]. Les deux taxons présentent des caractéristiques écologiques différentes : La maturation a lieu essentiellement du 1er mai au 30 septembre pour Tuber aestivum et du 15 septembre au 31 janvier pour Tuber uncinatum. La couleur plus claire de la glèbe et la taille de l'ornementation des spores constituent également des caractères distinctifs[3] mais par contre aucune différence n'a pu être mise en évidence jusqu'à présent par les techniques moléculaires[4]. Tuber uncinatum a un goût et une odeur caractéristiques et appréciés des connaisseurs aussi la  norme Truffes Fraîches, résultant d'un accord interprofessionnel pris dans le cadre de la fédération française des trufficulteurs en 1996 et mis à jour en 2006, classe les deux truffes comme parentes mais non identiques[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est Adolphe Chatin en 1887, qui a défini Tuber uncinatum comme une espèce à part entière alors qu'auparavant elle était classée dans  Tuber aestivum décrite en 1831 par Vittadini . Les deux taxons présentent des caractéristiques écologiques différentes : La maturation a lieu essentiellement du 1er mai au 30 septembre pour Tuber aestivum et du 15 septembre au 31 janvier pour Tuber uncinatum. La couleur plus claire de la glèbe et la taille de l'ornementation des spores constituent également des caractères distinctifs mais par contre aucune différence n'a pu être mise en évidence jusqu'à présent par les techniques moléculaires. Tuber uncinatum a un goût et une odeur caractéristiques et appréciés des connaisseurs aussi la  norme Truffes Fraîches, résultant d'un accord interprofessionnel pris dans le cadre de la fédération française des trufficulteurs en 1996 et mis à jour en 2006, classe les deux truffes comme parentes mais non identiques.
 </t>
         </is>
       </c>
